--- a/prep_and_checklists/Stila  /PREP_REQ_Stila  _Wednesday, July 23, 2025  _0.xlsx
+++ b/prep_and_checklists/Stila  /PREP_REQ_Stila  _Wednesday, July 23, 2025  _0.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Stila  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5011902A-D26F-2947-846D-BB2561CB8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E4E75-A5BE-3645-A0FA-930B84C174F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="2460" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep Req" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>EVENT PREP 07-10-2025</t>
   </si>
@@ -49,13 +62,19 @@
     <t>snacks</t>
   </si>
   <si>
-    <t>2025-07-23, by 4pm</t>
-  </si>
-  <si>
     <t>marinated olives</t>
   </si>
   <si>
     <t>rosemary salt</t>
+  </si>
+  <si>
+    <t>6 quarts</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>Tuesday, July 22, by 4pm</t>
   </si>
 </sst>
 </file>
@@ -466,14 +485,15 @@
   <dimension ref="A1:V987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="12.1640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
     <col min="7" max="22" width="8.83203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="14.5" style="2" customWidth="1"/>
@@ -546,12 +566,14 @@
       <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="9"/>
@@ -574,14 +596,16 @@
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
@@ -604,14 +628,16 @@
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
